--- a/apps/api/src/utils/xlsx/shs.xlsx
+++ b/apps/api/src/utils/xlsx/shs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36470FF7-56F3-46CA-B60F-6266FFA3EF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2AE06A-9D81-4ADB-832A-DB96D9FE0518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Autogenerated Student and Input for ezGrade Importer</t>
   </si>
@@ -73,25 +73,16 @@
     <t>STUDENT NAMES</t>
   </si>
   <si>
-    <t>FIRST SEMESTER</t>
-  </si>
-  <si>
-    <t>AVG. SEM. GRADE</t>
-  </si>
-  <si>
     <t>REMARKS</t>
-  </si>
-  <si>
-    <t>1ST QUARTER</t>
-  </si>
-  <si>
-    <t>2ND QUARTER</t>
   </si>
   <si>
     <t>BOYS</t>
   </si>
   <si>
     <t>GIRLS</t>
+  </si>
+  <si>
+    <t>AVERAGE GRADE</t>
   </si>
 </sst>
 </file>
@@ -243,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -402,17 +393,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -446,17 +426,6 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,11 +478,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -547,16 +529,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,10 +546,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,41 +607,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,7 +1066,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,40 +1077,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1139,18 +1118,18 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
     </row>
@@ -1160,18 +1139,18 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="32" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="1"/>
@@ -1195,23 +1174,23 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1237,11 +1216,11 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -1454,11 +1433,11 @@
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -1691,107 +1670,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="33">
         <f>STUDENTS!D3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="34">
+      <c r="G3" s="50"/>
+      <c r="H3" s="37">
         <f>STUDENTS!J3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="40">
         <f>STUDENTS!D4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="53" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2"/>
@@ -1799,51 +1773,38 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1852,14 +1813,12 @@
         <v>0</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="str">
-        <f>IF(OR(C9="",D9=""), "", IF(E9&gt;=75, "PASSED", "FAILED"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="23" t="str">
+        <f>IF(OR(C9=""), "", IF(C9&gt;=75, "PASSED", "FAILED"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2</v>
       </c>
@@ -1868,14 +1827,12 @@
         <v>0</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="str">
-        <f t="shared" ref="F10:F38" si="0">IF(OR(C10="",D10=""), "", IF(E10&gt;=75, "PASSED", "FAILED"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="23" t="str">
+        <f t="shared" ref="D10:D38" si="0">IF(OR(C10=""), "", IF(C10&gt;=75, "PASSED", "FAILED"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -1884,14 +1841,12 @@
         <v>0</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -1900,14 +1855,12 @@
         <v>0</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>5</v>
       </c>
@@ -1916,14 +1869,12 @@
         <v>0</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -1932,14 +1883,12 @@
         <v>0</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>7</v>
       </c>
@@ -1948,14 +1897,12 @@
         <v>0</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>8</v>
       </c>
@@ -1964,14 +1911,12 @@
         <v>0</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>9</v>
       </c>
@@ -1980,14 +1925,12 @@
         <v>0</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>10</v>
       </c>
@@ -1996,14 +1939,12 @@
         <v>0</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>11</v>
       </c>
@@ -2012,14 +1953,12 @@
         <v>0</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>12</v>
       </c>
@@ -2028,14 +1967,12 @@
         <v>0</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>13</v>
       </c>
@@ -2044,14 +1981,12 @@
         <v>0</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>14</v>
       </c>
@@ -2060,14 +1995,12 @@
         <v>0</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>15</v>
       </c>
@@ -2076,14 +2009,12 @@
         <v>0</v>
       </c>
       <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>16</v>
       </c>
@@ -2092,14 +2023,12 @@
         <v>0</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>17</v>
       </c>
@@ -2108,14 +2037,12 @@
         <v>0</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>18</v>
       </c>
@@ -2124,14 +2051,12 @@
         <v>0</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>19</v>
       </c>
@@ -2140,14 +2065,12 @@
         <v>0</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>20</v>
       </c>
@@ -2156,14 +2079,12 @@
         <v>0</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -2172,17 +2093,12 @@
         <v>0</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23" t="str">
-        <f t="shared" ref="E10:E38" si="1">IF(OR(C29="",D29=""),"",IF(ISERROR(ROUND(AVERAGE(C29,D29),0)),"",ROUND(AVERAGE(C29,D29),0)))</f>
-        <v/>
-      </c>
-      <c r="F29" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -2191,17 +2107,12 @@
         <v>0</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -2210,17 +2121,12 @@
         <v>0</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -2229,17 +2135,12 @@
         <v>0</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>25</v>
       </c>
@@ -2248,17 +2149,12 @@
         <v>0</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>26</v>
       </c>
@@ -2267,17 +2163,12 @@
         <v>0</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>27</v>
       </c>
@@ -2286,17 +2177,12 @@
         <v>0</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>28</v>
       </c>
@@ -2305,17 +2191,12 @@
         <v>0</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>29</v>
       </c>
@@ -2324,17 +2205,12 @@
         <v>0</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F37" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>30</v>
       </c>
@@ -2343,27 +2219,20 @@
         <v>0</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F38" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>1</v>
       </c>
@@ -2371,18 +2240,13 @@
         <f>STUDENTS!C40</f>
         <v>0</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="23" t="str">
-        <f>IF(OR(C40="",D40=""),"",IF(ISERROR(ROUND(AVERAGE(C40,D40),0)),"",ROUND(AVERAGE(C40,D40),0)))</f>
-        <v/>
-      </c>
-      <c r="F40" s="23" t="str">
-        <f>IF(OR(C40="",D40=""), "", IF(E40&gt;=75, "PASSED", "FAILED"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="22"/>
+      <c r="D40" s="23" t="str">
+        <f>IF(OR(C40="",), "", IF(C40&gt;=75, "PASSED", "FAILED"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>2</v>
       </c>
@@ -2390,18 +2254,13 @@
         <f>STUDENTS!C41</f>
         <v>0</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="23" t="str">
-        <f t="shared" ref="E41:E69" si="2">IF(OR(C41="",D41=""),"",IF(ISERROR(ROUND(AVERAGE(C41,D41),0)),"",ROUND(AVERAGE(C41,D41),0)))</f>
-        <v/>
-      </c>
-      <c r="F41" s="23" t="str">
-        <f t="shared" ref="F41:F69" si="3">IF(OR(C41="",D41=""), "", IF(E41&gt;=75, "PASSED", "FAILED"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="22"/>
+      <c r="D41" s="23" t="str">
+        <f t="shared" ref="D41:D69" si="1">IF(OR(C41="",), "", IF(C41&gt;=75, "PASSED", "FAILED"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>3</v>
       </c>
@@ -2409,18 +2268,13 @@
         <f>STUDENTS!C42</f>
         <v>0</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F42" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="22"/>
+      <c r="D42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>4</v>
       </c>
@@ -2428,18 +2282,13 @@
         <f>STUDENTS!C43</f>
         <v>0</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F43" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="22"/>
+      <c r="D43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>5</v>
       </c>
@@ -2447,18 +2296,13 @@
         <f>STUDENTS!C44</f>
         <v>0</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F44" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="22"/>
+      <c r="D44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>6</v>
       </c>
@@ -2466,18 +2310,13 @@
         <f>STUDENTS!C45</f>
         <v>0</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F45" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="22"/>
+      <c r="D45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>7</v>
       </c>
@@ -2485,18 +2324,13 @@
         <f>STUDENTS!C46</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F46" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="22"/>
+      <c r="D46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>8</v>
       </c>
@@ -2504,18 +2338,13 @@
         <f>STUDENTS!C47</f>
         <v>0</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F47" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="22"/>
+      <c r="D47" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>9</v>
       </c>
@@ -2523,18 +2352,13 @@
         <f>STUDENTS!C48</f>
         <v>0</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F48" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="22"/>
+      <c r="D48" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>10</v>
       </c>
@@ -2542,18 +2366,13 @@
         <f>STUDENTS!C49</f>
         <v>0</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F49" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="22"/>
+      <c r="D49" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>11</v>
       </c>
@@ -2561,18 +2380,13 @@
         <f>STUDENTS!C50</f>
         <v>0</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F50" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="22"/>
+      <c r="D50" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>12</v>
       </c>
@@ -2580,18 +2394,13 @@
         <f>STUDENTS!C51</f>
         <v>0</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F51" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="22"/>
+      <c r="D51" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>13</v>
       </c>
@@ -2599,18 +2408,13 @@
         <f>STUDENTS!C52</f>
         <v>0</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F52" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="22"/>
+      <c r="D52" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>14</v>
       </c>
@@ -2618,18 +2422,13 @@
         <f>STUDENTS!C53</f>
         <v>0</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F53" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="22"/>
+      <c r="D53" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>15</v>
       </c>
@@ -2637,18 +2436,13 @@
         <f>STUDENTS!C54</f>
         <v>0</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F54" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="22"/>
+      <c r="D54" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>16</v>
       </c>
@@ -2656,18 +2450,13 @@
         <f>STUDENTS!C55</f>
         <v>0</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F55" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="22"/>
+      <c r="D55" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>17</v>
       </c>
@@ -2675,18 +2464,13 @@
         <f>STUDENTS!C56</f>
         <v>0</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F56" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="22"/>
+      <c r="D56" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>18</v>
       </c>
@@ -2694,18 +2478,13 @@
         <f>STUDENTS!C57</f>
         <v>0</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F57" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="22"/>
+      <c r="D57" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>19</v>
       </c>
@@ -2713,18 +2492,13 @@
         <f>STUDENTS!C58</f>
         <v>0</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F58" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="22"/>
+      <c r="D58" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>20</v>
       </c>
@@ -2732,18 +2506,13 @@
         <f>STUDENTS!C59</f>
         <v>0</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F59" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="22"/>
+      <c r="D59" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>21</v>
       </c>
@@ -2751,18 +2520,13 @@
         <f>STUDENTS!C60</f>
         <v>0</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F60" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="22"/>
+      <c r="D60" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>22</v>
       </c>
@@ -2770,18 +2534,13 @@
         <f>STUDENTS!C61</f>
         <v>0</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F61" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="22"/>
+      <c r="D61" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>23</v>
       </c>
@@ -2789,18 +2548,13 @@
         <f>STUDENTS!C62</f>
         <v>0</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F62" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="22"/>
+      <c r="D62" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>24</v>
       </c>
@@ -2808,18 +2562,13 @@
         <f>STUDENTS!C63</f>
         <v>0</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F63" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="22"/>
+      <c r="D63" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>25</v>
       </c>
@@ -2827,18 +2576,13 @@
         <f>STUDENTS!C64</f>
         <v>0</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F64" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="22"/>
+      <c r="D64" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>26</v>
       </c>
@@ -2846,18 +2590,13 @@
         <f>STUDENTS!C65</f>
         <v>0</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F65" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="22"/>
+      <c r="D65" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>27</v>
       </c>
@@ -2865,18 +2604,13 @@
         <f>STUDENTS!C66</f>
         <v>0</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F66" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="22"/>
+      <c r="D66" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>28</v>
       </c>
@@ -2884,18 +2618,13 @@
         <f>STUDENTS!C67</f>
         <v>0</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F67" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="22"/>
+      <c r="D67" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>29</v>
       </c>
@@ -2903,18 +2632,13 @@
         <f>STUDENTS!C68</f>
         <v>0</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F68" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="22"/>
+      <c r="D68" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>30</v>
       </c>
@@ -2922,33 +2646,27 @@
         <f>STUDENTS!C69</f>
         <v>0</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F69" s="23" t="str">
-        <f t="shared" si="3"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C6:D6"/>
+  <mergeCells count="10">
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid data" error="Grades should only be numerical values between 0 to 100." sqref="C9:D38 C40:D69" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid data" error="Grades should only be numerical values between 0 to 100." sqref="C9:C38 C40:C69" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
